--- a/02_MasterWifoMannheim/03_Courses/Course103.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course103.xlsx
@@ -1,37 +1,133 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3005A715B7A3B1159C638324A6BFA3D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E62E51E-03DA-42D8-A0AA-F2515E81AC51}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2040" yWindow="1530" windowWidth="21600" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>IS 742 Seminar Trends in Enterprise Systems</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>This module is a research seminar where state-of-the-art research topics are discussed. Students systematically explore a research topic from the enterprise systems domain. They present their work in class for discussion and will write a seminar paper, following academic guidelines.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>After completing this seminar, students will be able to summarize a current research topic from the enterprise systems domain and put it into the context of related work. They will know to evaluate extant work and how to communicate the insights academically in a written report. Students will also learn and train presentation skills, too.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>IS 540</t>
+  </si>
+  <si>
+    <t>Obligatory registration</t>
+  </si>
+  <si>
+    <t>Further Information on the registration:Application via email (Motivation letter, Transcript of Records and CV) to applicat@mail.uni-mannheim.de; Application deadline will be announced via Portal2 and the Chair’s homepage</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Seminar 2 10</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Written report and presentation</t>
+  </si>
+  <si>
+    <t>Preliminary course work -</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Hartmut Höhle</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>Continuously</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +142,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,205 +466,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>IS 742 Seminar Trends in Enterprise Systems</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>This module is a research seminar where state-of-the-art research topics are discussed. Students systematically explore a research topic from the enterprise systems domain. They present their work in class for discussion and will write a seminar paper, following academic guidelines.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>After completing this seminar, students will be able to summarize a current research topic from the enterprise systems domain and put it into the context of related work. They will know to evaluate extant work and how to communicate the insights academically in a written report. Students will also learn and train presentation skills, too.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>IS 540</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Obligatory registration</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Further Information on the registration:Application via email (Motivation letter, Transcript of Records and CV) to applicat@mail.uni-mannheim.de; Application deadline will be announced via Portal2 and the Chair’s homepage</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Seminar 2 10</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Written report and presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Preliminary course work -</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Prof. Dr. Hartmut Höhle</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Continuously</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
